--- a/api/src/DataFixtures/resources/Testdata.xlsx
+++ b/api/src/DataFixtures/resources/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\Conduction\Repos\brpservice\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D4AFE-7723-4D69-BFDB-7689D5125F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE8133-4ED5-441E-83E7-25C556C145DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1257,7 +1257,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="128.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="29">
-        <v>999999000</v>
+        <v>999999102</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>47</v>
@@ -1440,7 +1440,7 @@
         <v>179</v>
       </c>
       <c r="F3" s="29">
-        <v>999999001</v>
+        <v>999999114</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>47</v>
@@ -1504,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="29">
-        <v>999999002</v>
+        <v>999999126</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>30</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="29">
-        <v>999999003</v>
+        <v>999999138</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>93</v>
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="29">
-        <v>999999004</v>
+        <v>999999151</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>93</v>
@@ -1691,7 +1691,7 @@
         <v>97</v>
       </c>
       <c r="F7" s="29">
-        <v>999999010</v>
+        <v>999999163</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>98</v>
@@ -1815,7 +1815,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="29">
-        <v>999999012</v>
+        <v>999999175</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>93</v>
@@ -2323,7 +2323,7 @@
         <v>161</v>
       </c>
       <c r="F18" s="29">
-        <v>999999061</v>
+        <v>999999187</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>98</v>
@@ -2386,7 +2386,7 @@
         <v>161</v>
       </c>
       <c r="F19" s="29">
-        <v>999999062</v>
+        <v>999999199</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>93</v>
@@ -2446,7 +2446,7 @@
         <v>168</v>
       </c>
       <c r="F20" s="29">
-        <v>999999070</v>
+        <v>999999205</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>98</v>
@@ -2502,7 +2502,7 @@
         <v>173</v>
       </c>
       <c r="F21" s="29">
-        <v>999999071</v>
+        <v>999999217</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>174</v>

--- a/api/src/DataFixtures/resources/Testdata.xlsx
+++ b/api/src/DataFixtures/resources/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\Conduction\Repos\brpservice\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE8133-4ED5-441E-83E7-25C556C145DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8DE22-80B2-4A64-B03A-D6795D057802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="210">
   <si>
     <t>Martin Timmers</t>
   </si>
@@ -632,6 +632,66 @@
   </si>
   <si>
     <t>4;5;6</t>
+  </si>
+  <si>
+    <t>4-2-1984</t>
+  </si>
+  <si>
+    <t>29-6-1989</t>
+  </si>
+  <si>
+    <t>7-6-2013</t>
+  </si>
+  <si>
+    <t>24-9-2014</t>
+  </si>
+  <si>
+    <t>25-2-2017</t>
+  </si>
+  <si>
+    <t>9-3-1960</t>
+  </si>
+  <si>
+    <t>16-5-1960</t>
+  </si>
+  <si>
+    <t>15-11-1990</t>
+  </si>
+  <si>
+    <t>23-1-1952</t>
+  </si>
+  <si>
+    <t>24-2-1949</t>
+  </si>
+  <si>
+    <t>23-1940</t>
+  </si>
+  <si>
+    <t>3-4-1941</t>
+  </si>
+  <si>
+    <t>6-4-1990</t>
+  </si>
+  <si>
+    <t>31-10-1958</t>
+  </si>
+  <si>
+    <t>16-8-1970</t>
+  </si>
+  <si>
+    <t>23-7-1973</t>
+  </si>
+  <si>
+    <t>26-8-1979</t>
+  </si>
+  <si>
+    <t>23-4-2012</t>
+  </si>
+  <si>
+    <t>26-7-1993</t>
+  </si>
+  <si>
+    <t>27-6-1992</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1314,10 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="128.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,8 +1328,7 @@
     <col min="4" max="4" width="12" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="22" bestFit="1" customWidth="1"/>
@@ -1385,8 +1444,8 @@
       <c r="G2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="34">
-        <v>30716</v>
+      <c r="H2" s="38" t="s">
+        <v>190</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>84</v>
@@ -1412,6 +1471,7 @@
       <c r="P2" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q2" s="34"/>
       <c r="S2" s="23" t="s">
         <v>87</v>
       </c>
@@ -1445,8 +1505,8 @@
       <c r="G3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="34">
-        <v>32688</v>
+      <c r="H3" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>84</v>
@@ -1472,6 +1532,7 @@
       <c r="P3" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q3" s="34"/>
       <c r="S3" s="23" t="s">
         <v>87</v>
       </c>
@@ -1509,8 +1570,8 @@
       <c r="G4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="34">
-        <v>41432</v>
+      <c r="H4" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>84</v>
@@ -1536,6 +1597,7 @@
       <c r="P4" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q4" s="34"/>
       <c r="S4" s="23" t="s">
         <v>87</v>
       </c>
@@ -1572,8 +1634,8 @@
       <c r="G5" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="34">
-        <v>41906</v>
+      <c r="H5" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>84</v>
@@ -1599,6 +1661,7 @@
       <c r="P5" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q5" s="34"/>
       <c r="S5" s="23" t="s">
         <v>87</v>
       </c>
@@ -1636,8 +1699,8 @@
       <c r="G6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="34">
-        <v>42791</v>
+      <c r="H6" s="38" t="s">
+        <v>194</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>84</v>
@@ -1663,6 +1726,7 @@
       <c r="P6" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q6" s="34"/>
       <c r="S6" s="23" t="s">
         <v>87</v>
       </c>
@@ -1696,8 +1760,8 @@
       <c r="G7" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="34">
-        <v>21984</v>
+      <c r="H7" s="38" t="s">
+        <v>195</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>84</v>
@@ -1723,6 +1787,7 @@
       <c r="P7" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q7" s="34"/>
       <c r="S7" s="23" t="s">
         <v>87</v>
       </c>
@@ -1759,8 +1824,8 @@
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="34">
-        <v>22052</v>
+      <c r="H8" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>84</v>
@@ -1786,6 +1851,7 @@
       <c r="P8" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q8" s="34"/>
       <c r="S8" s="23" t="s">
         <v>87</v>
       </c>
@@ -1820,8 +1886,8 @@
       <c r="G9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="34">
-        <v>33192</v>
+      <c r="H9" s="38" t="s">
+        <v>197</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>84</v>
@@ -1847,6 +1913,7 @@
       <c r="P9" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q9" s="34"/>
       <c r="S9" s="23" t="s">
         <v>87</v>
       </c>
@@ -1880,8 +1947,8 @@
       <c r="G10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="34">
-        <v>19016</v>
+      <c r="H10" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>84</v>
@@ -1907,6 +1974,7 @@
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q10" s="34"/>
       <c r="S10" s="23" t="s">
         <v>87</v>
       </c>
@@ -1935,8 +2003,8 @@
       <c r="G11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="34">
-        <v>17953</v>
+      <c r="H11" s="38" t="s">
+        <v>199</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>114</v>
@@ -1962,6 +2030,7 @@
       <c r="P11" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q11" s="34"/>
       <c r="S11" s="23" t="s">
         <v>87</v>
       </c>
@@ -1993,8 +2062,8 @@
       <c r="G12" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="34">
-        <v>14693</v>
+      <c r="H12" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>122</v>
@@ -2020,6 +2089,7 @@
       <c r="P12" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q12" s="34"/>
       <c r="S12" s="23" t="s">
         <v>87</v>
       </c>
@@ -2051,8 +2121,8 @@
       <c r="G13" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="34">
-        <v>15069</v>
+      <c r="H13" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>128</v>
@@ -2078,6 +2148,7 @@
       <c r="P13" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q13" s="34"/>
       <c r="S13" s="23" t="s">
         <v>87</v>
       </c>
@@ -2112,8 +2183,8 @@
       <c r="G14" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="34">
-        <v>32969</v>
+      <c r="H14" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>136</v>
@@ -2139,6 +2210,7 @@
       <c r="P14" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q14" s="34"/>
       <c r="S14" s="23" t="s">
         <v>87</v>
       </c>
@@ -2169,8 +2241,8 @@
       <c r="G15" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="34">
-        <v>21489</v>
+      <c r="H15" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>143</v>
@@ -2196,6 +2268,7 @@
       <c r="P15" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q15" s="34"/>
       <c r="S15" s="23" t="s">
         <v>87</v>
       </c>
@@ -2229,8 +2302,8 @@
       <c r="G16" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="34">
-        <v>25796</v>
+      <c r="H16" s="38" t="s">
+        <v>204</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>84</v>
@@ -2246,6 +2319,7 @@
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="23"/>
+      <c r="Q16" s="34"/>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
       <c r="W16" s="38"/>
@@ -2270,8 +2344,8 @@
       <c r="G17" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="34">
-        <v>26868</v>
+      <c r="H17" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>84</v>
@@ -2297,6 +2371,7 @@
       <c r="P17" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q17" s="34"/>
       <c r="S17" s="23" t="s">
         <v>87</v>
       </c>
@@ -2328,8 +2403,8 @@
       <c r="G18" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="34">
-        <v>29093</v>
+      <c r="H18" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>84</v>
@@ -2355,6 +2430,7 @@
       <c r="P18" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q18" s="34"/>
       <c r="S18" s="23" t="s">
         <v>87</v>
       </c>
@@ -2391,8 +2467,8 @@
       <c r="G19" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="34">
-        <v>41022</v>
+      <c r="H19" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>84</v>
@@ -2418,6 +2494,7 @@
       <c r="P19" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q19" s="34"/>
       <c r="S19" s="23" t="s">
         <v>87</v>
       </c>
@@ -2451,8 +2528,8 @@
       <c r="G20" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="34">
-        <v>34176</v>
+      <c r="H20" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>84</v>
@@ -2478,6 +2555,7 @@
       <c r="P20" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q20" s="34"/>
       <c r="S20" s="23" t="s">
         <v>87</v>
       </c>
@@ -2507,8 +2585,8 @@
       <c r="G21" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="34">
-        <v>33782</v>
+      <c r="H21" s="38" t="s">
+        <v>209</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>84</v>
@@ -2534,6 +2612,7 @@
       <c r="P21" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q21" s="34"/>
       <c r="S21" s="23" t="s">
         <v>87</v>
       </c>

--- a/api/src/DataFixtures/resources/Testdata.xlsx
+++ b/api/src/DataFixtures/resources/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\Conduction\Repos\brpservice\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8DE22-80B2-4A64-B03A-D6795D057802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224CE75-C9AE-4F3F-8666-CF18DFE6986F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="225">
   <si>
     <t>Martin Timmers</t>
   </si>
@@ -628,12 +628,6 @@
     <t>ouders</t>
   </si>
   <si>
-    <t>2;3</t>
-  </si>
-  <si>
-    <t>4;5;6</t>
-  </si>
-  <si>
     <t>4-2-1984</t>
   </si>
   <si>
@@ -692,6 +686,57 @@
   </si>
   <si>
     <t>27-6-1992</t>
+  </si>
+  <si>
+    <t>3;4;5</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Verblijfsobject</t>
+  </si>
+  <si>
+    <t>796200000418418</t>
+  </si>
+  <si>
+    <t>796200000416728</t>
+  </si>
+  <si>
+    <t>935200000056165</t>
+  </si>
+  <si>
+    <t>1640200000083330</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0448200000007142</t>
+  </si>
+  <si>
+    <t>865200000011764</t>
+  </si>
+  <si>
+    <t>796200000338166</t>
   </si>
 </sst>
 </file>
@@ -871,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -977,6 +1022,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1311,13 +1358,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="128.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1395,7 @@
     <col min="25" max="16384" width="128.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>58</v>
       </c>
@@ -1421,8 +1468,11 @@
       <c r="X1" s="24" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="Y1" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>82</v>
       </c>
@@ -1445,7 +1495,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>84</v>
@@ -1479,14 +1529,17 @@
         <v>87</v>
       </c>
       <c r="V2" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" s="38"/>
       <c r="X2" s="38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>82</v>
       </c>
@@ -1506,7 +1559,7 @@
         <v>47</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>84</v>
@@ -1543,12 +1596,15 @@
         <v>146</v>
       </c>
       <c r="V3" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
-    </row>
-    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="Y3" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>82</v>
       </c>
@@ -1571,7 +1627,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>84</v>
@@ -1608,11 +1664,14 @@
         <v>147</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="X4" s="38"/>
-    </row>
-    <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="Y4" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>91</v>
       </c>
@@ -1635,7 +1694,7 @@
         <v>93</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>84</v>
@@ -1673,11 +1732,14 @@
       </c>
       <c r="V5" s="37"/>
       <c r="W5" s="40" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="X5" s="38"/>
-    </row>
-    <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="Y5" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>82</v>
       </c>
@@ -1700,7 +1762,7 @@
         <v>93</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>84</v>
@@ -1737,11 +1799,14 @@
         <v>147</v>
       </c>
       <c r="W6" s="40" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="X6" s="38"/>
-    </row>
-    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="Y6" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>94</v>
       </c>
@@ -1761,7 +1826,7 @@
         <v>98</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>84</v>
@@ -1795,14 +1860,17 @@
         <v>87</v>
       </c>
       <c r="V7" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W7" s="38"/>
-      <c r="X7" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="X7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y7" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>94</v>
       </c>
@@ -1825,7 +1893,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>84</v>
@@ -1862,12 +1930,15 @@
         <v>146</v>
       </c>
       <c r="V8" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
-    </row>
-    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="Y8" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>94</v>
       </c>
@@ -1887,7 +1958,7 @@
         <v>93</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>84</v>
@@ -1923,12 +1994,15 @@
       <c r="U9" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="W9" s="39">
-        <v>7</v>
+      <c r="W9" s="39" t="s">
+        <v>211</v>
       </c>
       <c r="X9" s="38"/>
-    </row>
-    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="Y9" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>107</v>
       </c>
@@ -1948,7 +2022,7 @@
         <v>111</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>84</v>
@@ -1983,8 +2057,11 @@
       </c>
       <c r="W10" s="38"/>
       <c r="X10" s="38"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>107</v>
       </c>
@@ -2004,7 +2081,7 @@
         <v>111</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>114</v>
@@ -2042,8 +2119,11 @@
       </c>
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>118</v>
       </c>
@@ -2063,7 +2143,7 @@
         <v>98</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>122</v>
@@ -2101,8 +2181,11 @@
       </c>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>118</v>
       </c>
@@ -2122,7 +2205,7 @@
         <v>98</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>128</v>
@@ -2159,12 +2242,15 @@
         <v>146</v>
       </c>
       <c r="V13" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>131</v>
       </c>
@@ -2184,7 +2270,7 @@
         <v>135</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>136</v>
@@ -2217,12 +2303,15 @@
       <c r="T14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="W14" s="38">
-        <v>15</v>
+      <c r="W14" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="X14" s="38"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>131</v>
       </c>
@@ -2242,7 +2331,7 @@
         <v>93</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>143</v>
@@ -2279,11 +2368,14 @@
         <v>145</v>
       </c>
       <c r="W15" s="38"/>
-      <c r="X15" s="38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="X15" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y15" s="41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>149</v>
       </c>
@@ -2303,7 +2395,7 @@
         <v>98</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>84</v>
@@ -2325,7 +2417,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>153</v>
       </c>
@@ -2345,7 +2437,7 @@
         <v>98</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>84</v>
@@ -2379,12 +2471,15 @@
         <v>87</v>
       </c>
       <c r="V17" s="22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
-    </row>
-    <row r="18" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="Y17" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>153</v>
       </c>
@@ -2404,7 +2499,7 @@
         <v>98</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>84</v>
@@ -2441,14 +2536,17 @@
         <v>146</v>
       </c>
       <c r="V18" s="22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W18" s="38"/>
-      <c r="X18" s="38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="X18" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y18" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>153</v>
       </c>
@@ -2468,7 +2566,7 @@
         <v>93</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>84</v>
@@ -2504,12 +2602,15 @@
       <c r="U19" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="W19" s="38">
-        <v>18</v>
+      <c r="W19" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="X19" s="38"/>
-    </row>
-    <row r="20" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="Y19" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>165</v>
       </c>
@@ -2529,7 +2630,7 @@
         <v>98</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>84</v>
@@ -2565,8 +2666,11 @@
       <c r="U20" s="23"/>
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
-    </row>
-    <row r="21" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="Y20" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>165</v>
       </c>
@@ -2586,7 +2690,7 @@
         <v>174</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>84</v>
@@ -2624,6 +2728,9 @@
       </c>
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
+      <c r="Y21" s="41" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/api/src/DataFixtures/resources/Testdata.xlsx
+++ b/api/src/DataFixtures/resources/Testdata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\Conduction\Repos\brpservice\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224CE75-C9AE-4F3F-8666-CF18DFE6986F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B50025D-873F-4B02-ACC9-F1745676C9C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="224">
   <si>
     <t>Martin Timmers</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>1640200000083330</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0448200000007142</t>
@@ -1361,10 +1358,10 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="128.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,21 +1567,11 @@
       <c r="K3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="33">
-        <v>3</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="34"/>
       <c r="S3" s="23" t="s">
         <v>87</v>
@@ -1600,9 +1587,7 @@
       </c>
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
-      <c r="Y3" s="41" t="s">
-        <v>217</v>
-      </c>
+      <c r="Y3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -2247,7 +2232,7 @@
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2308,7 +2293,7 @@
       </c>
       <c r="X14" s="38"/>
       <c r="Y14" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2372,7 +2357,7 @@
         <v>214</v>
       </c>
       <c r="Y15" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
@@ -2476,7 +2461,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
@@ -2543,7 +2528,7 @@
         <v>213</v>
       </c>
       <c r="Y18" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
@@ -2607,7 +2592,7 @@
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
@@ -2667,7 +2652,7 @@
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
       <c r="Y20" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
@@ -2729,7 +2714,7 @@
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
       <c r="Y21" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
